--- a/Labo1_detergent.xlsx
+++ b/Labo1_detergent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/limy0346_e_ntu_edu_sg/Documents/0 NTU Labs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nibra\OneDrive\Desktop\Ishtiak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="456" documentId="8_{A1F2ACAE-10DE-4026-9C0A-677ED8958CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E5AF123-0012-4107-9A93-810701D2A53F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E891CD16-5807-4649-B224-85EE865538EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3" xr2:uid="{445E437B-68E2-4BA3-84E7-D97DBC90280F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{445E437B-68E2-4BA3-84E7-D97DBC90280F}"/>
   </bookViews>
   <sheets>
     <sheet name="big_velocity" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>time</t>
   </si>
@@ -71,38 +71,112 @@
     <t>dist_compl</t>
   </si>
   <si>
-    <t>ish_volume</t>
-  </si>
-  <si>
-    <t>ish_mass</t>
-  </si>
-  <si>
-    <t>ish_time</t>
-  </si>
-  <si>
-    <t>ish_dist</t>
-  </si>
-  <si>
-    <t>ish_distance</t>
-  </si>
-  <si>
     <t>Big Beads</t>
   </si>
   <si>
-    <t>Big Mass</t>
+    <r>
+      <t xml:space="preserve">ish_time(s) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.05</t>
+    </r>
+  </si>
+  <si>
+    <t>ish_distance (cm) ± 0.1</t>
+  </si>
+  <si>
+    <r>
+      <t>ish_volume(ml)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ish_mass (g) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Big Mass(g) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.001</t>
+    </r>
+  </si>
+  <si>
+    <t>Small Beads</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Small Mass(g) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.001</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,17 +272,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>mass!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Big Mass</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:noFill/>
@@ -231,6 +294,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -350,7 +427,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E86D-4BD6-A25F-88CA8B5DF4EF}"/>
+              <c16:uniqueId val="{00000000-21B2-494C-8BC6-222CAE17C7AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -362,11 +439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468876032"/>
-        <c:axId val="468877472"/>
+        <c:axId val="653160912"/>
+        <c:axId val="653162712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468876032"/>
+        <c:axId val="653160912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,12 +500,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468877472"/>
+        <c:crossAx val="653162712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468877472"/>
+        <c:axId val="653162712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,7 +562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468876032"/>
+        <c:crossAx val="653160912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1101,23 +1178,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536574</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E790F67C-7F39-4279-8F40-7F25C65EE431}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3958C11B-8191-6CB0-52C7-CF4D7121AD02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,10 +1213,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1459,689 +1532,691 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91B41CB-2729-481D-BAB4-329CE835894F}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8.1</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>13.2</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5.2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>18.2</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>7.46</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>23.6</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>10.11</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>28.6</v>
       </c>
       <c r="B6">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>12.81</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>33.700000000000003</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>15.39</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>38.700000000000003</v>
       </c>
       <c r="B8">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>17.82</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>43.4</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>20.48</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>49.1</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>23.1</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>53.9</v>
       </c>
       <c r="B11">
         <v>22</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>25.46</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>59</v>
       </c>
       <c r="B12">
         <v>24</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>28.08</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>64.3</v>
       </c>
       <c r="B13">
         <v>26</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>30.63</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>68.5</v>
       </c>
       <c r="B14">
         <v>28</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>33.299999999999997</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>73.900000000000006</v>
       </c>
       <c r="B15">
         <v>30</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>35.81</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>78.8</v>
       </c>
       <c r="B16">
         <v>32</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>38.29</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>83.5</v>
       </c>
       <c r="B17">
         <v>34</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>40.85</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>88.6</v>
       </c>
       <c r="B18">
         <v>36</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>43.3</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>93.8</v>
       </c>
       <c r="B19">
         <v>38</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>45.79</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>98.7</v>
       </c>
       <c r="B20">
         <v>40</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>48.43</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>103</v>
       </c>
       <c r="B21">
         <v>42</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>51.03</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>108.1</v>
       </c>
       <c r="B22">
         <v>44</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>53.44</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>113</v>
       </c>
       <c r="B23">
         <v>46</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>56.09</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>117.9</v>
       </c>
       <c r="B24">
         <v>48</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>58.49</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>122.9</v>
       </c>
       <c r="B25">
         <v>50</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>60.82</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>127.8</v>
       </c>
       <c r="B26">
         <v>52</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>63.59</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>132.6</v>
       </c>
       <c r="B27">
         <v>54</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>66.209999999999994</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>137.5</v>
       </c>
       <c r="B28">
         <v>56</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>68.599999999999994</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>143.69999999999999</v>
       </c>
       <c r="B29">
         <v>58</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>71.19</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>147.9</v>
       </c>
       <c r="B30">
         <v>60</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>73.680000000000007</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>152.30000000000001</v>
       </c>
       <c r="B31">
         <v>62</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>75.91</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>157.5</v>
       </c>
       <c r="B32">
         <v>64</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>78.349999999999994</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>161.9</v>
       </c>
       <c r="B33">
         <v>66</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>81.19</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>166.4</v>
       </c>
       <c r="B34">
         <v>68</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>83.51</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>171.6</v>
       </c>
       <c r="B35">
         <v>70</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>86.01</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>176.4</v>
       </c>
       <c r="B36">
         <v>72</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>88.49</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>181.7</v>
       </c>
       <c r="B37">
         <v>74</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>91.01</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D38">
         <v>93.4</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D39">
         <v>95.95</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D40">
         <v>98.27</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D41">
         <v>100.64</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D42">
         <v>103.38</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D43">
         <v>105.74</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D44">
         <v>108.28</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D45">
         <v>110.77</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D46">
         <v>113.2</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D47">
         <v>115.36</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D48">
         <v>118.14</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C49">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D49">
         <v>120.69</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C50">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D50">
         <v>122.9</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C51">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D51">
         <v>125.42</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C52">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D52">
         <v>127.76</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C53">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D53">
         <v>130.21</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C54">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D54">
         <v>132.69999999999999</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C55">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D55">
         <v>135.07</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C56">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D56">
         <v>137.49</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2149,22 +2224,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8B6962-A91A-476D-B227-9F1DDA5F3D28}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="10" max="11" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2184,13 +2261,13 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2219,7 +2296,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2248,7 +2325,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -2277,7 +2354,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15</v>
       </c>
@@ -2306,7 +2383,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -2335,7 +2412,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -2364,7 +2441,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>30</v>
       </c>
@@ -2393,7 +2470,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>64</v>
       </c>
@@ -2416,7 +2493,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>74</v>
       </c>
@@ -2439,7 +2516,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>83</v>
       </c>
@@ -2462,7 +2539,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>107.5</v>
       </c>
@@ -2479,7 +2556,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>116.3</v>
       </c>
@@ -2496,7 +2573,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>125.3</v>
       </c>
@@ -2513,7 +2590,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>143.5</v>
       </c>
@@ -2530,7 +2607,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>153.30000000000001</v>
       </c>
@@ -2547,7 +2624,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>161.4</v>
       </c>
@@ -2564,7 +2641,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>171.2</v>
       </c>
@@ -2581,7 +2658,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>178.7</v>
       </c>
@@ -2598,7 +2675,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>187.9</v>
       </c>
@@ -2613,7 +2690,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21">
         <v>198.3</v>
       </c>
@@ -2628,7 +2705,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22">
         <v>476</v>
       </c>
@@ -2643,7 +2720,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E23">
         <v>484.9</v>
       </c>
@@ -2658,7 +2735,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E24">
         <v>493.3</v>
       </c>
@@ -2673,7 +2750,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E25">
         <v>502.3</v>
       </c>
@@ -2688,7 +2765,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E26">
         <v>510.7</v>
       </c>
@@ -2703,7 +2780,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>520.9</v>
       </c>
@@ -2718,7 +2795,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>529.70000000000005</v>
       </c>
@@ -2733,7 +2810,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>538.9</v>
       </c>
@@ -2748,7 +2825,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E30">
         <v>547.9</v>
       </c>
@@ -2763,7 +2840,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E31">
         <v>556.4</v>
       </c>
@@ -2778,7 +2855,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E32">
         <v>565.6</v>
       </c>
@@ -2793,7 +2870,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G33">
         <v>300.56</v>
       </c>
@@ -2802,7 +2879,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G34">
         <v>309.42</v>
       </c>
@@ -2811,7 +2888,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G35">
         <v>317.83999999999997</v>
       </c>
@@ -2820,7 +2897,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G36">
         <v>326.45999999999998</v>
       </c>
@@ -2829,7 +2906,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G37">
         <v>335.26</v>
       </c>
@@ -2838,7 +2915,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G38">
         <v>344.04</v>
       </c>
@@ -2847,7 +2924,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G39">
         <v>352.75</v>
       </c>
@@ -2856,7 +2933,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G40">
         <v>361.26</v>
       </c>
@@ -2865,7 +2942,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G41">
         <v>370.37</v>
       </c>
@@ -2874,7 +2951,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G42">
         <v>379.09</v>
       </c>
@@ -2883,7 +2960,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G43">
         <v>387.05</v>
       </c>
@@ -2892,7 +2969,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G44">
         <v>395.9</v>
       </c>
@@ -2901,7 +2978,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G45">
         <v>404.92</v>
       </c>
@@ -2910,7 +2987,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G46">
         <v>413.45</v>
       </c>
@@ -2919,7 +2996,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G47">
         <v>421.67</v>
       </c>
@@ -2928,7 +3005,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G48">
         <v>431.75</v>
       </c>
@@ -2937,7 +3014,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G49">
         <v>439.03</v>
       </c>
@@ -2946,7 +3023,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G50">
         <v>447.98</v>
       </c>
@@ -2955,7 +3032,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G51">
         <v>456.66</v>
       </c>
@@ -2974,12 +3051,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2987,13 +3068,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>24.5</v>
       </c>
@@ -3007,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>21</v>
       </c>
@@ -3021,7 +3102,7 @@
         <v>5.7220000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19</v>
       </c>
@@ -3035,7 +3116,7 @@
         <v>7.2110000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15.25</v>
       </c>
@@ -3049,7 +3130,7 @@
         <v>9.3789999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>13.5</v>
       </c>
@@ -3063,7 +3144,7 @@
         <v>13.944000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -3077,7 +3158,7 @@
         <v>16.198</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9.5</v>
       </c>
@@ -3091,7 +3172,7 @@
         <v>18.187000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7.25</v>
       </c>
@@ -3105,7 +3186,7 @@
         <v>20.242000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>21.5</v>
       </c>
@@ -3113,7 +3194,7 @@
         <v>21.861999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>24.5</v>
       </c>
@@ -3128,87 +3209,146 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCCB917-4608-4756-ADEC-E59426B5381E}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1.8859999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>2.8140000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>3.746</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>4.6980000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>5.6479999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>6.5940000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
